--- a/S1/Organização de Estudos/Gráfico de Evolução dos estudos - fev 25.xlsx
+++ b/S1/Organização de Estudos/Gráfico de Evolução dos estudos - fev 25.xlsx
@@ -5,19 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudos\Programacao\Estudos_Senac\S1\Organização de Estudos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudos\Programacao\Estudos-SENAC\S1\Organização de Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963F2B58-569F-4739-8205-5D78E2C3BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7253E9DF-90D1-4D04-9B3F-6B7F4737BB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="528" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="420" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DISCIPLINAS" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgKlWSTYzrk0GUkecIdiv6EaoN2zw=="/>
     </ext>
@@ -450,14 +461,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -468,14 +479,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1698,10 +1709,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.85714285714285721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,10 +1894,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,10 +2349,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,7 +2971,7 @@
               </a:spcAft>
               <a:buNone/>
             </a:pPr>
-            <a:t>0%</a:t>
+            <a:t>14%</a:t>
           </a:fld>
           <a:endParaRPr sz="1600" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -3250,7 +3261,7 @@
               </a:spcAft>
               <a:buNone/>
             </a:pPr>
-            <a:t>0%</a:t>
+            <a:t>100%</a:t>
           </a:fld>
           <a:endParaRPr sz="1600" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -3975,7 +3986,7 @@
               </a:spcAft>
               <a:buNone/>
             </a:pPr>
-            <a:t>0%</a:t>
+            <a:t>13%</a:t>
           </a:fld>
           <a:endParaRPr sz="1600" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -5834,8 +5845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U998"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -6074,7 +6085,7 @@
     <row r="10" spans="2:21" ht="15" customHeight="1">
       <c r="B10" s="27"/>
       <c r="C10" s="21" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>16</v>
@@ -6134,18 +6145,18 @@
       <c r="C12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="22">
         <f>G18</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="33">
         <f ca="1">G18-G17</f>
-        <v>-45880</v>
+        <v>-45895</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="1"/>
@@ -6166,12 +6177,12 @@
     <row r="13" spans="2:21" ht="15" customHeight="1">
       <c r="B13" s="27"/>
       <c r="C13" s="21" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -6214,18 +6225,18 @@
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="22">
         <f>G19</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="33">
         <f ca="1">G19-G17</f>
-        <v>-45880</v>
+        <v>-45895</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="1"/>
@@ -6246,12 +6257,12 @@
     <row r="16" spans="2:21" ht="15" customHeight="1">
       <c r="B16" s="27"/>
       <c r="C16" s="21" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -6275,7 +6286,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="6">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45895</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -6441,7 +6452,7 @@
     <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="B23" s="27"/>
       <c r="C23" s="21" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>16</v>
@@ -6635,18 +6646,18 @@
       <c r="C29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="22">
         <f>G36</f>
         <v>45428</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="29">
         <f ca="1">G36-G34</f>
-        <v>-452</v>
+        <v>-467</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H29" s="1"/>
@@ -6669,10 +6680,10 @@
       <c r="C30" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="25"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -6715,18 +6726,18 @@
       <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="22">
         <f>G37</f>
         <v>45378</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="29">
         <f ca="1">G37-G34</f>
-        <v>-502</v>
+        <v>-517</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H32" s="1"/>
@@ -6749,10 +6760,10 @@
       <c r="C33" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -6776,7 +6787,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="6">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45895</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -6966,10 +6977,10 @@
     <row r="42" spans="2:21" ht="15" customHeight="1">
       <c r="B42" s="27"/>
       <c r="C42" s="21" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>16</v>
@@ -7160,18 +7171,18 @@
       <c r="C48" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="22">
         <f>G54</f>
         <v>0</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="29">
         <f ca="1">G54-G53</f>
-        <v>-45880</v>
+        <v>-45895</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H48" s="1"/>
@@ -7192,12 +7203,12 @@
     <row r="49" spans="2:21" ht="15" customHeight="1">
       <c r="B49" s="27"/>
       <c r="C49" s="21" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="25"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="32"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -7240,18 +7251,18 @@
       <c r="C51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="22">
         <f>G55</f>
         <v>0</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="29">
         <f ca="1">G55-G53</f>
-        <v>-45880</v>
+        <v>-45895</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H51" s="1"/>
@@ -7274,10 +7285,10 @@
       <c r="C52" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="25"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="32"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -7301,7 +7312,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="6">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45895</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -11159,6 +11170,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EC3520EwwrAM3R/c6CPVUHBptXq6tHRA/hwsJXX6fLJ9cPSLcVGSJ8BVDdWmX610bgRvPYfvlpkYGZIRku3gbg==" saltValue="IEpfXhtXjQgwqIRpi/xU5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B4:B20"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="B40:B56"/>
@@ -11175,17 +11197,6 @@
     <mergeCell ref="B21:B39"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B4:B20"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="C13">
     <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Concluído">
@@ -11786,7 +11797,7 @@
       <c r="A10" s="12"/>
       <c r="B10" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$10:$I$10,"pendente")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$10:$I$10,"em andamento")</f>
@@ -11794,7 +11805,7 @@
       </c>
       <c r="D10" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$10:$I$10,"concluído")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="16">
         <f>D10+C10+B10</f>
@@ -11802,11 +11813,11 @@
       </c>
       <c r="F10" s="14">
         <f>D10/E10</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G10" s="15">
         <f>100%-F10</f>
-        <v>1</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -11900,11 +11911,11 @@
       <c r="A13" s="12"/>
       <c r="B13" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$13,"pendente")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$13,"em andamento")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$13,"concluído")</f>
@@ -12014,7 +12025,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$16,"pendente")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$16,"em andamento")</f>
@@ -12022,7 +12033,7 @@
       </c>
       <c r="D16" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$16,"concluído")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="16">
         <f>D16+C16+B16</f>
@@ -12030,11 +12041,11 @@
       </c>
       <c r="F16" s="14">
         <f>D16/E16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="15">
         <f>100%-F16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -12270,11 +12281,11 @@
       <c r="A24" s="12"/>
       <c r="B24" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$23:$R$23,"pendente")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$23:$R$23,"em andamento")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$23:$R$23,"concluído")</f>
@@ -12924,7 +12935,7 @@
       <c r="A43" s="12"/>
       <c r="B43" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$42:$R$42,"pendente")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C43" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$42:$R$42,"em andamento")</f>
@@ -12932,7 +12943,7 @@
       </c>
       <c r="D43" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$42:$R$42,"concluído")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43" s="16">
         <f>D43+C43+B43</f>
@@ -12940,11 +12951,11 @@
       </c>
       <c r="F43" s="14">
         <f>D43/E43</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G43" s="15">
         <f>100%-F43</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -13180,11 +13191,11 @@
       <c r="A50" s="12"/>
       <c r="B50" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$49,"pendente")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$49,"em andamento")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="16">
         <f>COUNTIF(DISCIPLINAS!$C$49,"concluído")</f>
